--- a/docs/20171205_lib2_ind/20171216.seqlib.pcr.xlsx
+++ b/docs/20171205_lib2_ind/20171216.seqlib.pcr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17060" yWindow="460" windowWidth="17060" windowHeight="28260" tabRatio="500"/>
+    <workbookView xWindow="5860" yWindow="460" windowWidth="17060" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="PCR" sheetId="1" r:id="rId1"/>
@@ -95,9 +95,6 @@
     <t>MM</t>
   </si>
   <si>
-    <t>primers + gDNA</t>
-  </si>
-  <si>
     <t>gDNA</t>
   </si>
   <si>
@@ -222,6 +219,9 @@
   </si>
   <si>
     <t>7) Incubate in -80C  for 30 min or dry ice for 15 min. Spin max speed for 30 min at 4C. Wash pellet with 750uL 80% etOH, pulse spin, remove etOH and dry pellet. Resuspend in 15uL 10mM Tris pH 8.0</t>
+  </si>
+  <si>
+    <t>F primer + gDNA</t>
   </si>
 </sst>
 </file>
@@ -240,34 +240,40 @@
       <sz val="13"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -578,7 +584,7 @@
   <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -601,7 +607,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="3">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -635,7 +641,7 @@
       </c>
       <c r="C4" s="2">
         <f>C$12*(D4/F4)</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2">
         <v>0.5</v>
@@ -660,7 +666,7 @@
       </c>
       <c r="C5" s="2">
         <f>C$12*(D5/F5)</f>
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="D5" s="2">
         <v>0.5</v>
@@ -677,7 +683,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="3">
         <f t="shared" si="0"/>
@@ -685,7 +691,7 @@
       </c>
       <c r="C6" s="2">
         <f>C$12*(D6/F6)</f>
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -710,7 +716,7 @@
       </c>
       <c r="C7" s="2">
         <f>C$12*(D7/F7)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D7" s="2">
         <v>0.2</v>
@@ -727,14 +733,14 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="3">
         <f t="shared" si="0"/>
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="C8" s="2">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -751,7 +757,7 @@
       </c>
       <c r="B9" s="3">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>198</v>
       </c>
       <c r="C9" s="2">
         <v>6</v>
@@ -763,7 +769,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="3">
         <f t="shared" si="0"/>
@@ -771,7 +777,7 @@
       </c>
       <c r="C10" s="2">
         <f>C$12*(D10/F10)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" s="4">
         <v>0.02</v>
@@ -792,11 +798,11 @@
       </c>
       <c r="B11" s="3">
         <f t="shared" si="0"/>
-        <v>2095.5</v>
+        <v>1996.5</v>
       </c>
       <c r="C11" s="2">
         <f>C12-SUM(C4:C10)</f>
-        <v>190.5</v>
+        <v>60.5</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -810,7 +816,7 @@
         <v>3300</v>
       </c>
       <c r="C12" s="2">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -825,18 +831,18 @@
         <v>21</v>
       </c>
       <c r="G14">
-        <v>210</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="G15">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -846,13 +852,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19">
         <v>7</v>
@@ -863,10 +869,10 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20">
         <v>11</v>
@@ -877,10 +883,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
         <v>29</v>
-      </c>
-      <c r="C21" t="s">
-        <v>30</v>
       </c>
       <c r="D21">
         <v>9</v>
@@ -888,13 +894,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -905,10 +911,10 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23">
         <v>12</v>
@@ -919,10 +925,10 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24">
         <v>14</v>
@@ -930,13 +936,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25">
         <v>19</v>
@@ -944,13 +950,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26">
         <v>21</v>
@@ -958,13 +964,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D27">
         <v>23</v>
@@ -972,13 +978,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -986,106 +992,106 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" t="s">
         <v>50</v>
-      </c>
-      <c r="B43" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" t="s">
         <v>52</v>
-      </c>
-      <c r="B44" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" t="s">
         <v>54</v>
-      </c>
-      <c r="B45" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
